--- a/datastatic/datasets/online/D_Climate_Technological_Innovation_in_Climate_Sector_EUROSTAT_2015.xlsx
+++ b/datastatic/datasets/online/D_Climate_Technological_Innovation_in_Climate_Sector_EUROSTAT_2015.xlsx
@@ -52,25 +52,25 @@
     <t>long_indicator_description$en$text</t>
   </si>
   <si>
+    <t xml:space="preserve">The Eco-Innovation Scoreboard is a composite indicator to comprehensively assess and compare eco-innovation performance across EU Member States. The Eco-Innovation Scoreboard is an index based on indicators in five areas: eco-innovation inputs, eco-innovation activities, eco-innovation outputs, resource efficiency outcomes and socio-economic outcomes. In each of the areas points are awarded for innovative policy and practice. </t>
+  </si>
+  <si>
+    <t>long_indicator_description$en$baseunit</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>long_indicator_description$de$text</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dieser Indikator basiert auf dem Eco-Innovation Scoreboard des Eco-Innovation Observatory, einem EU Projekt. Das Scorebord ist ein Index um die Innovationsleistung in den EU Mitgliedsländern zu bewerten und zu vergleichen. Der Index beruht auf Einzelindikatoren aus fünf Themenbereichen: Ressourcen für Umweltinnovation, Maßnahmen der Umweltinnovation, Ergebnisse im Bereich Umweltinnovation, Ergebnisse im Bezug auf Ressourceneffizienz sowie sozio-ökonomische Ergebnisse. Jeder dieser Bereiche wird mit Punkten bewertet. </t>
   </si>
   <si>
-    <t>long_indicator_description$en$baseunit</t>
-  </si>
-  <si>
-    <t>Punkte</t>
-  </si>
-  <si>
-    <t>long_indicator_description$de$text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Eco-Innovation Scoreboard is a composite indicator to comprehensively assess and compare eco-innovation performance across EU Member States. The Eco-Innovation Scoreboard is an index based on indicators in five areas: eco-innovation inputs, eco-innovation activities, eco-innovation outputs, resource efficiency outcomes and socio-economic outcomes. In each of the areas points are awarded for innovative policy and practice. </t>
-  </si>
-  <si>
     <t>long_indicator_description$de$baseunit</t>
   </si>
   <si>
-    <t>Points</t>
+    <t>points</t>
   </si>
   <si>
     <t>target</t>

--- a/datastatic/datasets/online/D_Climate_Technological_Innovation_in_Climate_Sector_EUROSTAT_2015.xlsx
+++ b/datastatic/datasets/online/D_Climate_Technological_Innovation_in_Climate_Sector_EUROSTAT_2015.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="D_Climate_Technological_Innovation_in_Climate_Sector_EUROSTAT_2013.csv" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="D_Climate_Technological_Innovat" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>
